--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Tnc</t>
+  </si>
+  <si>
+    <t>Ptprb</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tnc</t>
-  </si>
-  <si>
-    <t>Ptprb</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H2">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I2">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J2">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>146.5291443333333</v>
+        <v>111.9838483333333</v>
       </c>
       <c r="N2">
-        <v>439.587433</v>
+        <v>335.951545</v>
       </c>
       <c r="O2">
-        <v>0.9876486023666144</v>
+        <v>0.9903421230865344</v>
       </c>
       <c r="P2">
-        <v>0.9876486023666142</v>
+        <v>0.9903421230865345</v>
       </c>
       <c r="Q2">
-        <v>764.2699346549754</v>
+        <v>2360.312164530941</v>
       </c>
       <c r="R2">
-        <v>6878.429411894778</v>
+        <v>21242.80948077847</v>
       </c>
       <c r="S2">
-        <v>0.03982016441605687</v>
+        <v>0.1552430675163025</v>
       </c>
       <c r="T2">
-        <v>0.03982016441605687</v>
+        <v>0.1552430675163025</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H3">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I3">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J3">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>0.2506956666666667</v>
       </c>
       <c r="N3">
-        <v>0.752087</v>
+        <v>0.7520870000000001</v>
       </c>
       <c r="O3">
-        <v>0.001689760940932313</v>
+        <v>0.002217056142205812</v>
       </c>
       <c r="P3">
-        <v>0.001689760940932312</v>
+        <v>0.002217056142205812</v>
       </c>
       <c r="Q3">
-        <v>1.307583973504667</v>
+        <v>5.283976577293556</v>
       </c>
       <c r="R3">
-        <v>11.768255761542</v>
+        <v>47.55578919564201</v>
       </c>
       <c r="S3">
-        <v>6.81280349412968E-05</v>
+        <v>0.0003475390860879458</v>
       </c>
       <c r="T3">
-        <v>6.812803494129679E-05</v>
+        <v>0.0003475390860879458</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H4">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I4">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J4">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.04295533333333334</v>
+        <v>0.08600233333333333</v>
       </c>
       <c r="N4">
-        <v>0.128866</v>
+        <v>0.258007</v>
       </c>
       <c r="O4">
-        <v>0.0002895313087637247</v>
+        <v>0.0007605715882365937</v>
       </c>
       <c r="P4">
-        <v>0.0002895313087637246</v>
+        <v>0.0007605715882365937</v>
       </c>
       <c r="Q4">
-        <v>0.2240473726173334</v>
+        <v>1.812693138929111</v>
       </c>
       <c r="R4">
-        <v>2.016426353556</v>
+        <v>16.314238250362</v>
       </c>
       <c r="S4">
-        <v>1.167336671255474E-05</v>
+        <v>0.0001192249260847384</v>
       </c>
       <c r="T4">
-        <v>1.167336671255473E-05</v>
+        <v>0.0001192249260847384</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H5">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I5">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J5">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9747983333333332</v>
+        <v>0.2330673333333333</v>
       </c>
       <c r="N5">
-        <v>2.924395</v>
+        <v>0.699202</v>
       </c>
       <c r="O5">
-        <v>0.006570421303463229</v>
+        <v>0.00206115793617306</v>
       </c>
       <c r="P5">
-        <v>0.006570421303463228</v>
+        <v>0.00206115793617306</v>
       </c>
       <c r="Q5">
-        <v>5.084374592563333</v>
+        <v>4.912419694525777</v>
       </c>
       <c r="R5">
-        <v>45.75937133306999</v>
+        <v>44.211777250732</v>
       </c>
       <c r="S5">
-        <v>0.0002649072311343683</v>
+        <v>0.0003231009498513654</v>
       </c>
       <c r="T5">
-        <v>0.0002649072311343682</v>
+        <v>0.0003231009498513654</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H6">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I6">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J6">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5176430000000001</v>
+        <v>0.4146136666666667</v>
       </c>
       <c r="N6">
-        <v>1.552929</v>
+        <v>1.243841</v>
       </c>
       <c r="O6">
-        <v>0.003489062792258177</v>
+        <v>0.003666683946109186</v>
       </c>
       <c r="P6">
-        <v>0.003489062792258176</v>
+        <v>0.003666683946109187</v>
       </c>
       <c r="Q6">
-        <v>2.699933747546</v>
+        <v>8.738918117022889</v>
       </c>
       <c r="R6">
-        <v>24.299403727914</v>
+        <v>78.650263053206</v>
       </c>
       <c r="S6">
-        <v>0.0001406725567299436</v>
+        <v>0.0005747784024703478</v>
       </c>
       <c r="T6">
-        <v>0.0001406725567299436</v>
+        <v>0.0005747784024703479</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H7">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I7">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J7">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.04638100000000001</v>
+        <v>0.1076943333333334</v>
       </c>
       <c r="N7">
-        <v>0.139143</v>
+        <v>0.3230830000000001</v>
       </c>
       <c r="O7">
-        <v>0.0003126212879682069</v>
+        <v>0.0009524073007408459</v>
       </c>
       <c r="P7">
-        <v>0.0003126212879682068</v>
+        <v>0.000952407300740846</v>
       </c>
       <c r="Q7">
-        <v>0.241915040182</v>
+        <v>2.269900961619778</v>
       </c>
       <c r="R7">
-        <v>2.177235361638</v>
+        <v>20.42910865457801</v>
       </c>
       <c r="S7">
-        <v>1.260431195571372E-05</v>
+        <v>0.0001492965182891764</v>
       </c>
       <c r="T7">
-        <v>1.260431195571371E-05</v>
+        <v>0.0001492965182891764</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>254.912293</v>
       </c>
       <c r="I8">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J8">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>146.5291443333333</v>
+        <v>111.9838483333333</v>
       </c>
       <c r="N8">
-        <v>439.587433</v>
+        <v>335.951545</v>
       </c>
       <c r="O8">
-        <v>0.9876486023666144</v>
+        <v>0.9903421230865344</v>
       </c>
       <c r="P8">
-        <v>0.9876486023666142</v>
+        <v>0.9903421230865345</v>
       </c>
       <c r="Q8">
-        <v>12450.69339111265</v>
+        <v>9515.353185871409</v>
       </c>
       <c r="R8">
-        <v>112056.2405200139</v>
+        <v>85638.17867284268</v>
       </c>
       <c r="S8">
-        <v>0.6487088336817004</v>
+        <v>0.6258462923988943</v>
       </c>
       <c r="T8">
-        <v>0.6487088336817004</v>
+        <v>0.6258462923988946</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>254.912293</v>
       </c>
       <c r="I9">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J9">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,13 +998,13 @@
         <v>0.2506956666666667</v>
       </c>
       <c r="N9">
-        <v>0.752087</v>
+        <v>0.7520870000000001</v>
       </c>
       <c r="O9">
-        <v>0.001689760940932313</v>
+        <v>0.002217056142205812</v>
       </c>
       <c r="P9">
-        <v>0.001689760940932312</v>
+        <v>0.002217056142205812</v>
       </c>
       <c r="Q9">
         <v>21.30180241172122</v>
@@ -1013,10 +1013,10 @@
         <v>191.716221705491</v>
       </c>
       <c r="S9">
-        <v>0.001109871311078106</v>
+        <v>0.001401067706092577</v>
       </c>
       <c r="T9">
-        <v>0.001109871311078106</v>
+        <v>0.001401067706092578</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>254.912293</v>
       </c>
       <c r="I10">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J10">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.04295533333333334</v>
+        <v>0.08600233333333333</v>
       </c>
       <c r="N10">
-        <v>0.128866</v>
+        <v>0.258007</v>
       </c>
       <c r="O10">
-        <v>0.0002895313087637247</v>
+        <v>0.0007605715882365937</v>
       </c>
       <c r="P10">
-        <v>0.0002895313087637246</v>
+        <v>0.0007605715882365937</v>
       </c>
       <c r="Q10">
-        <v>3.649947505526444</v>
+        <v>7.307683997783443</v>
       </c>
       <c r="R10">
-        <v>32.849527549738</v>
+        <v>65.769155980051</v>
       </c>
       <c r="S10">
-        <v>0.0001901703876990178</v>
+        <v>0.00048064289855539</v>
       </c>
       <c r="T10">
-        <v>0.0001901703876990178</v>
+        <v>0.0004806428985553901</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>254.912293</v>
       </c>
       <c r="I11">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J11">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9747983333333332</v>
+        <v>0.2330673333333333</v>
       </c>
       <c r="N11">
-        <v>2.924395</v>
+        <v>0.699202</v>
       </c>
       <c r="O11">
-        <v>0.006570421303463229</v>
+        <v>0.00206115793617306</v>
       </c>
       <c r="P11">
-        <v>0.006570421303463228</v>
+        <v>0.00206115793617306</v>
       </c>
       <c r="Q11">
-        <v>82.82935945419275</v>
+        <v>19.80390945446511</v>
       </c>
       <c r="R11">
-        <v>745.4642350877349</v>
+        <v>178.235185090186</v>
       </c>
       <c r="S11">
-        <v>0.004315593957561103</v>
+        <v>0.001302547899691581</v>
       </c>
       <c r="T11">
-        <v>0.004315593957561102</v>
+        <v>0.001302547899691581</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>254.912293</v>
       </c>
       <c r="I12">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J12">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5176430000000001</v>
+        <v>0.4146136666666667</v>
       </c>
       <c r="N12">
-        <v>1.552929</v>
+        <v>1.243841</v>
       </c>
       <c r="O12">
-        <v>0.003489062792258177</v>
+        <v>0.003666683946109186</v>
       </c>
       <c r="P12">
-        <v>0.003489062792258176</v>
+        <v>0.003666683946109187</v>
       </c>
       <c r="Q12">
-        <v>43.98452136179966</v>
+        <v>35.23004015971255</v>
       </c>
       <c r="R12">
-        <v>395.860692256197</v>
+        <v>317.0703614374129</v>
       </c>
       <c r="S12">
-        <v>0.002291691446921981</v>
+        <v>0.002317159393280162</v>
       </c>
       <c r="T12">
-        <v>0.002291691446921981</v>
+        <v>0.002317159393280163</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,40 +1231,40 @@
         <v>254.912293</v>
       </c>
       <c r="I13">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J13">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.04638100000000001</v>
+        <v>0.1076943333333334</v>
       </c>
       <c r="N13">
-        <v>0.139143</v>
+        <v>0.3230830000000001</v>
       </c>
       <c r="O13">
-        <v>0.0003126212879682069</v>
+        <v>0.0009524073007408459</v>
       </c>
       <c r="P13">
-        <v>0.0003126212879682068</v>
+        <v>0.000952407300740846</v>
       </c>
       <c r="Q13">
-        <v>3.941029020544333</v>
+        <v>9.150869817702111</v>
       </c>
       <c r="R13">
-        <v>35.469261184899</v>
+        <v>82.35782835931902</v>
       </c>
       <c r="S13">
-        <v>0.0002053363824096692</v>
+        <v>0.0006018733972100412</v>
       </c>
       <c r="T13">
-        <v>0.0002053363824096692</v>
+        <v>0.0006018733972100414</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H14">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I14">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J14">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>146.5291443333333</v>
+        <v>111.9838483333333</v>
       </c>
       <c r="N14">
-        <v>439.587433</v>
+        <v>335.951545</v>
       </c>
       <c r="O14">
-        <v>0.9876486023666144</v>
+        <v>0.9903421230865344</v>
       </c>
       <c r="P14">
-        <v>0.9876486023666142</v>
+        <v>0.9903421230865345</v>
       </c>
       <c r="Q14">
-        <v>4.917176182489889</v>
+        <v>3127.398315410622</v>
       </c>
       <c r="R14">
-        <v>44.254585642409</v>
+        <v>28146.5848386956</v>
       </c>
       <c r="S14">
-        <v>0.0002561958218830892</v>
+        <v>0.2056960579729696</v>
       </c>
       <c r="T14">
-        <v>0.0002561958218830891</v>
+        <v>0.2056960579729696</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H15">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I15">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J15">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>0.2506956666666667</v>
       </c>
       <c r="N15">
-        <v>0.752087</v>
+        <v>0.7520870000000001</v>
       </c>
       <c r="O15">
-        <v>0.001689760940932313</v>
+        <v>0.002217056142205812</v>
       </c>
       <c r="P15">
-        <v>0.001689760940932312</v>
+        <v>0.002217056142205812</v>
       </c>
       <c r="Q15">
-        <v>0.008412761616777778</v>
+        <v>7.001234707351112</v>
       </c>
       <c r="R15">
-        <v>0.07571485455099999</v>
+        <v>63.01111236616</v>
       </c>
       <c r="S15">
-        <v>4.383236021503528E-07</v>
+        <v>0.0004604870358691662</v>
       </c>
       <c r="T15">
-        <v>4.383236021503527E-07</v>
+        <v>0.0004604870358691662</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H16">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I16">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J16">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.04295533333333334</v>
+        <v>0.08600233333333333</v>
       </c>
       <c r="N16">
-        <v>0.128866</v>
+        <v>0.258007</v>
       </c>
       <c r="O16">
-        <v>0.0002895313087637247</v>
+        <v>0.0007605715882365937</v>
       </c>
       <c r="P16">
-        <v>0.0002895313087637246</v>
+        <v>0.0007605715882365937</v>
       </c>
       <c r="Q16">
-        <v>0.001441480757555556</v>
+        <v>2.401806656862222</v>
       </c>
       <c r="R16">
-        <v>0.012973326818</v>
+        <v>21.61625991176</v>
       </c>
       <c r="S16">
-        <v>7.510435536674265E-08</v>
+        <v>0.0001579722540922738</v>
       </c>
       <c r="T16">
-        <v>7.510435536674263E-08</v>
+        <v>0.0001579722540922738</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H17">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I17">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J17">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9747983333333332</v>
+        <v>0.2330673333333333</v>
       </c>
       <c r="N17">
-        <v>2.924395</v>
+        <v>0.699202</v>
       </c>
       <c r="O17">
-        <v>0.006570421303463229</v>
+        <v>0.00206115793617306</v>
       </c>
       <c r="P17">
-        <v>0.006570421303463228</v>
+        <v>0.00206115793617306</v>
       </c>
       <c r="Q17">
-        <v>0.03271195753722222</v>
+        <v>6.508924246595555</v>
       </c>
       <c r="R17">
-        <v>0.294407617835</v>
+        <v>58.58031821936</v>
       </c>
       <c r="S17">
-        <v>1.704365785488223E-06</v>
+        <v>0.0004281066637952693</v>
       </c>
       <c r="T17">
-        <v>1.704365785488222E-06</v>
+        <v>0.0004281066637952693</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H18">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I18">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J18">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5176430000000001</v>
+        <v>0.4146136666666667</v>
       </c>
       <c r="N18">
-        <v>1.552929</v>
+        <v>1.243841</v>
       </c>
       <c r="O18">
-        <v>0.003489062792258177</v>
+        <v>0.003666683946109186</v>
       </c>
       <c r="P18">
-        <v>0.003489062792258176</v>
+        <v>0.003666683946109187</v>
       </c>
       <c r="Q18">
-        <v>0.01737089124633334</v>
+        <v>11.57900984809778</v>
       </c>
       <c r="R18">
-        <v>0.156338021217</v>
+        <v>104.21108863288</v>
       </c>
       <c r="S18">
-        <v>9.050620914385508E-07</v>
+        <v>0.0007615776568170164</v>
       </c>
       <c r="T18">
-        <v>9.050620914385506E-07</v>
+        <v>0.0007615776568170165</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H19">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I19">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J19">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.04638100000000001</v>
+        <v>0.1076943333333334</v>
       </c>
       <c r="N19">
-        <v>0.139143</v>
+        <v>0.3230830000000001</v>
       </c>
       <c r="O19">
-        <v>0.0003126212879682069</v>
+        <v>0.0009524073007408459</v>
       </c>
       <c r="P19">
-        <v>0.0003126212879682068</v>
+        <v>0.000952407300740846</v>
       </c>
       <c r="Q19">
-        <v>0.001556438137666667</v>
+        <v>3.007604057715556</v>
       </c>
       <c r="R19">
-        <v>0.014007943239</v>
+        <v>27.06843651944</v>
       </c>
       <c r="S19">
-        <v>8.109389069882413E-08</v>
+        <v>0.0001978169188002423</v>
       </c>
       <c r="T19">
-        <v>8.109389069882412E-08</v>
+        <v>0.0001978169188002423</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H20">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I20">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J20">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>146.5291443333333</v>
+        <v>111.9838483333333</v>
       </c>
       <c r="N20">
-        <v>439.587433</v>
+        <v>335.951545</v>
       </c>
       <c r="O20">
-        <v>0.9876486023666144</v>
+        <v>0.9903421230865344</v>
       </c>
       <c r="P20">
-        <v>0.9876486023666142</v>
+        <v>0.9903421230865345</v>
       </c>
       <c r="Q20">
-        <v>5719.809010108871</v>
+        <v>50.258015180455</v>
       </c>
       <c r="R20">
-        <v>51478.28109097984</v>
+        <v>452.322136624095</v>
       </c>
       <c r="S20">
-        <v>0.2980147783960666</v>
+        <v>0.00330558328730439</v>
       </c>
       <c r="T20">
-        <v>0.2980147783960665</v>
+        <v>0.003305583287304391</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H21">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I21">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J21">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>0.2506956666666667</v>
       </c>
       <c r="N21">
-        <v>0.752087</v>
+        <v>0.7520870000000001</v>
       </c>
       <c r="O21">
-        <v>0.001689760940932313</v>
+        <v>0.002217056142205812</v>
       </c>
       <c r="P21">
-        <v>0.001689760940932312</v>
+        <v>0.002217056142205812</v>
       </c>
       <c r="Q21">
-        <v>9.785980389902889</v>
+        <v>0.112511463113</v>
       </c>
       <c r="R21">
-        <v>88.07382350912599</v>
+        <v>1.012603168017</v>
       </c>
       <c r="S21">
-        <v>0.0005098713562167791</v>
+        <v>7.400133307316378E-06</v>
       </c>
       <c r="T21">
-        <v>0.000509871356216779</v>
+        <v>7.400133307316378E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H22">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I22">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J22">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.04295533333333334</v>
+        <v>0.08600233333333333</v>
       </c>
       <c r="N22">
-        <v>0.128866</v>
+        <v>0.258007</v>
       </c>
       <c r="O22">
-        <v>0.0002895313087637247</v>
+        <v>0.0007605715882365937</v>
       </c>
       <c r="P22">
-        <v>0.0002895313087637246</v>
+        <v>0.0007605715882365937</v>
       </c>
       <c r="Q22">
-        <v>1.676774294629778</v>
+        <v>0.03859758919299999</v>
       </c>
       <c r="R22">
-        <v>15.090968651668</v>
+        <v>0.3473783027369999</v>
       </c>
       <c r="S22">
-        <v>8.736367227492492E-05</v>
+        <v>2.538650706927226E-06</v>
       </c>
       <c r="T22">
-        <v>8.736367227492491E-05</v>
+        <v>2.538650706927226E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H23">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I23">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J23">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.9747983333333332</v>
+        <v>0.2330673333333333</v>
       </c>
       <c r="N23">
-        <v>2.924395</v>
+        <v>0.699202</v>
       </c>
       <c r="O23">
-        <v>0.006570421303463229</v>
+        <v>0.00206115793617306</v>
       </c>
       <c r="P23">
-        <v>0.006570421303463228</v>
+        <v>0.00206115793617306</v>
       </c>
       <c r="Q23">
-        <v>38.05154473130111</v>
+        <v>0.104599919998</v>
       </c>
       <c r="R23">
-        <v>342.4639025817099</v>
+        <v>0.9413992799819999</v>
       </c>
       <c r="S23">
-        <v>0.001982570161116423</v>
+        <v>6.879773229350096E-06</v>
       </c>
       <c r="T23">
-        <v>0.001982570161116423</v>
+        <v>6.879773229350096E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H24">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I24">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J24">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.5176430000000001</v>
+        <v>0.4146136666666667</v>
       </c>
       <c r="N24">
-        <v>1.552929</v>
+        <v>1.243841</v>
       </c>
       <c r="O24">
-        <v>0.003489062792258177</v>
+        <v>0.003666683946109186</v>
       </c>
       <c r="P24">
-        <v>0.003489062792258176</v>
+        <v>0.003666683946109187</v>
       </c>
       <c r="Q24">
-        <v>20.20634945280467</v>
+        <v>0.186077369759</v>
       </c>
       <c r="R24">
-        <v>181.857145075242</v>
+        <v>1.674696327831</v>
       </c>
       <c r="S24">
-        <v>0.001052795774077157</v>
+        <v>1.223872931337161E-05</v>
       </c>
       <c r="T24">
-        <v>0.001052795774077157</v>
+        <v>1.223872931337161E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H25">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I25">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J25">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.04638100000000001</v>
+        <v>0.1076943333333334</v>
       </c>
       <c r="N25">
-        <v>0.139143</v>
+        <v>0.3230830000000001</v>
       </c>
       <c r="O25">
-        <v>0.0003126212879682069</v>
+        <v>0.0009524073007408459</v>
       </c>
       <c r="P25">
-        <v>0.0003126212879682068</v>
+        <v>0.000952407300740846</v>
       </c>
       <c r="Q25">
-        <v>1.810496218379334</v>
+        <v>0.048332893717</v>
       </c>
       <c r="R25">
-        <v>16.294465965414</v>
+        <v>0.434996043453</v>
       </c>
       <c r="S25">
-        <v>9.433088208953393E-05</v>
+        <v>3.178963696125179E-06</v>
       </c>
       <c r="T25">
-        <v>9.43308820895339E-05</v>
+        <v>3.17896369612518E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H26">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I26">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J26">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>146.5291443333333</v>
+        <v>111.9838483333333</v>
       </c>
       <c r="N26">
-        <v>439.587433</v>
+        <v>335.951545</v>
       </c>
       <c r="O26">
-        <v>0.9876486023666144</v>
+        <v>0.9903421230865344</v>
       </c>
       <c r="P26">
-        <v>0.9876486023666142</v>
+        <v>0.9903421230865345</v>
       </c>
       <c r="Q26">
-        <v>1.182050607337</v>
+        <v>3.818051980975556</v>
       </c>
       <c r="R26">
-        <v>10.638455466033</v>
+        <v>34.36246782878</v>
       </c>
       <c r="S26">
-        <v>6.158746719967262E-05</v>
+        <v>0.0002511219110634595</v>
       </c>
       <c r="T26">
-        <v>6.158746719967262E-05</v>
+        <v>0.0002511219110634595</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H27">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I27">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J27">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>0.2506956666666667</v>
       </c>
       <c r="N27">
-        <v>0.752087</v>
+        <v>0.7520870000000001</v>
       </c>
       <c r="O27">
-        <v>0.001689760940932313</v>
+        <v>0.002217056142205812</v>
       </c>
       <c r="P27">
-        <v>0.001689760940932312</v>
+        <v>0.002217056142205812</v>
       </c>
       <c r="Q27">
-        <v>0.002022361943</v>
+        <v>0.00854738518977778</v>
       </c>
       <c r="R27">
-        <v>0.018201257487</v>
+        <v>0.076926466708</v>
       </c>
       <c r="S27">
-        <v>1.053695578321962E-07</v>
+        <v>5.621808488065863E-07</v>
       </c>
       <c r="T27">
-        <v>1.053695578321962E-07</v>
+        <v>5.621808488065863E-07</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H28">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I28">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J28">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.04295533333333334</v>
+        <v>0.08600233333333333</v>
       </c>
       <c r="N28">
-        <v>0.128866</v>
+        <v>0.258007</v>
       </c>
       <c r="O28">
-        <v>0.0002895313087637247</v>
+        <v>0.0007605715882365937</v>
       </c>
       <c r="P28">
-        <v>0.0002895313087637246</v>
+        <v>0.0007605715882365937</v>
       </c>
       <c r="Q28">
-        <v>0.000346520674</v>
+        <v>0.002932220887555556</v>
       </c>
       <c r="R28">
-        <v>0.003118686066</v>
+        <v>0.026389987988</v>
       </c>
       <c r="S28">
-        <v>1.805449826895532E-08</v>
+        <v>1.928587972642007E-07</v>
       </c>
       <c r="T28">
-        <v>1.805449826895532E-08</v>
+        <v>1.928587972642007E-07</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H29">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I29">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J29">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.9747983333333332</v>
+        <v>0.2330673333333333</v>
       </c>
       <c r="N29">
-        <v>2.924395</v>
+        <v>0.699202</v>
       </c>
       <c r="O29">
-        <v>0.006570421303463229</v>
+        <v>0.00206115793617306</v>
       </c>
       <c r="P29">
-        <v>0.006570421303463228</v>
+        <v>0.00206115793617306</v>
       </c>
       <c r="Q29">
-        <v>0.007863698154999998</v>
+        <v>0.007946353040888889</v>
       </c>
       <c r="R29">
-        <v>0.070773283395</v>
+        <v>0.07151717736799999</v>
       </c>
       <c r="S29">
-        <v>4.097161738956868E-07</v>
+        <v>5.226496054941286E-07</v>
       </c>
       <c r="T29">
-        <v>4.097161738956868E-07</v>
+        <v>5.226496054941286E-07</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H30">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I30">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J30">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.5176430000000001</v>
+        <v>0.4146136666666667</v>
       </c>
       <c r="N30">
-        <v>1.552929</v>
+        <v>1.243841</v>
       </c>
       <c r="O30">
-        <v>0.003489062792258177</v>
+        <v>0.003666683946109186</v>
       </c>
       <c r="P30">
-        <v>0.003489062792258176</v>
+        <v>0.003666683946109187</v>
       </c>
       <c r="Q30">
-        <v>0.004175826081000001</v>
+        <v>0.01413611476044445</v>
       </c>
       <c r="R30">
-        <v>0.037582434729</v>
+        <v>0.127225032844</v>
       </c>
       <c r="S30">
-        <v>2.175698317811565E-07</v>
+        <v>9.297642282879946E-07</v>
       </c>
       <c r="T30">
-        <v>2.175698317811565E-07</v>
+        <v>9.297642282879947E-07</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,433 +2326,61 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H31">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I31">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J31">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.04638100000000001</v>
+        <v>0.1076943333333334</v>
       </c>
       <c r="N31">
-        <v>0.139143</v>
+        <v>0.3230830000000001</v>
       </c>
       <c r="O31">
-        <v>0.0003126212879682069</v>
+        <v>0.0009524073007408459</v>
       </c>
       <c r="P31">
-        <v>0.0003126212879682068</v>
+        <v>0.000952407300740846</v>
       </c>
       <c r="Q31">
-        <v>0.000374155527</v>
+        <v>0.00367180239688889</v>
       </c>
       <c r="R31">
-        <v>0.003367399743000001</v>
+        <v>0.033046221572</v>
       </c>
       <c r="S31">
-        <v>1.949433560937136E-08</v>
+        <v>2.415027452608253E-07</v>
       </c>
       <c r="T31">
-        <v>1.949433560937136E-08</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H32">
-        <v>0.309271</v>
-      </c>
-      <c r="I32">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J32">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>146.5291443333333</v>
-      </c>
-      <c r="N32">
-        <v>439.587433</v>
-      </c>
-      <c r="O32">
-        <v>0.9876486023666144</v>
-      </c>
-      <c r="P32">
-        <v>0.9876486023666142</v>
-      </c>
-      <c r="Q32">
-        <v>15.10573833237144</v>
-      </c>
-      <c r="R32">
-        <v>135.951644991343</v>
-      </c>
-      <c r="S32">
-        <v>0.000787042583707696</v>
-      </c>
-      <c r="T32">
-        <v>0.0007870425837076958</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G33">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H33">
-        <v>0.309271</v>
-      </c>
-      <c r="I33">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J33">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>0.2506956666666667</v>
-      </c>
-      <c r="N33">
-        <v>0.752087</v>
-      </c>
-      <c r="O33">
-        <v>0.001689760940932313</v>
-      </c>
-      <c r="P33">
-        <v>0.001689760940932312</v>
-      </c>
-      <c r="Q33">
-        <v>0.02584429984188889</v>
-      </c>
-      <c r="R33">
-        <v>0.232598698577</v>
-      </c>
-      <c r="S33">
-        <v>1.346545536148141E-06</v>
-      </c>
-      <c r="T33">
-        <v>1.346545536148141E-06</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G34">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H34">
-        <v>0.309271</v>
-      </c>
-      <c r="I34">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J34">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.04295533333333334</v>
-      </c>
-      <c r="N34">
-        <v>0.128866</v>
-      </c>
-      <c r="O34">
-        <v>0.0002895313087637247</v>
-      </c>
-      <c r="P34">
-        <v>0.0002895313087637246</v>
-      </c>
-      <c r="Q34">
-        <v>0.004428279631777779</v>
-      </c>
-      <c r="R34">
-        <v>0.03985451668600001</v>
-      </c>
-      <c r="S34">
-        <v>2.307232235915078E-07</v>
-      </c>
-      <c r="T34">
-        <v>2.307232235915078E-07</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G35">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H35">
-        <v>0.309271</v>
-      </c>
-      <c r="I35">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J35">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0.9747983333333332</v>
-      </c>
-      <c r="N35">
-        <v>2.924395</v>
-      </c>
-      <c r="O35">
-        <v>0.006570421303463229</v>
-      </c>
-      <c r="P35">
-        <v>0.006570421303463228</v>
-      </c>
-      <c r="Q35">
-        <v>0.1004922851161111</v>
-      </c>
-      <c r="R35">
-        <v>0.9044305660449999</v>
-      </c>
-      <c r="S35">
-        <v>5.235871691950454E-06</v>
-      </c>
-      <c r="T35">
-        <v>5.235871691950454E-06</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G36">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H36">
-        <v>0.309271</v>
-      </c>
-      <c r="I36">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J36">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>0.5176430000000001</v>
-      </c>
-      <c r="N36">
-        <v>1.552929</v>
-      </c>
-      <c r="O36">
-        <v>0.003489062792258177</v>
-      </c>
-      <c r="P36">
-        <v>0.003489062792258176</v>
-      </c>
-      <c r="Q36">
-        <v>0.05336398941766668</v>
-      </c>
-      <c r="R36">
-        <v>0.4802759047590001</v>
-      </c>
-      <c r="S36">
-        <v>2.780382605875379E-06</v>
-      </c>
-      <c r="T36">
-        <v>2.780382605875379E-06</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G37">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H37">
-        <v>0.309271</v>
-      </c>
-      <c r="I37">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J37">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M37">
-        <v>0.04638100000000001</v>
-      </c>
-      <c r="N37">
-        <v>0.139143</v>
-      </c>
-      <c r="O37">
-        <v>0.0003126212879682069</v>
-      </c>
-      <c r="P37">
-        <v>0.0003126212879682068</v>
-      </c>
-      <c r="Q37">
-        <v>0.004781432750333334</v>
-      </c>
-      <c r="R37">
-        <v>0.043032894753</v>
-      </c>
-      <c r="S37">
-        <v>2.491232869817731E-07</v>
-      </c>
-      <c r="T37">
-        <v>2.49123286981773E-07</v>
+        <v>2.415027452608254E-07</v>
       </c>
     </row>
   </sheetData>
